--- a/preprocessed/ec_data.xlsx
+++ b/preprocessed/ec_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtjor\Downloads\soar_reeu\som_ec_nsf_reeu\preprocessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CD6D4-6A6D-4236-918E-708724B0F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9CA07-37C5-4FBC-9BD6-4DAFE949D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{951A400D-3628-4686-9B6C-4A6B949DA6F0}"/>
   </bookViews>
@@ -125,409 +125,409 @@
     <t>Turf</t>
   </si>
   <si>
-    <t>2024-07-01T12:23:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:24:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:25:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:28:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:29:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:30:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:34:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:35:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:36:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:40:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:41:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:42:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:45:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:46:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:47:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:50:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:51:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:52:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:57:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:58:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T12:59:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:03:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:04:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:05:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:09:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:10:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:11:33UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:15:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:16:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:17:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:20:07UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:21:07UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:22:07UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:26:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:27:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:28:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:32:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:33:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:34:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:38:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:39:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:40:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:43:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:44:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T13:45:08UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:19:38UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:20:38UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:21:38UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:25:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:26:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:27:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:31:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:32:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:33:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:51:27UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:52:27UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:53:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:57:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:58:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T14:59:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:02:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:03:27UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:04:27UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:09:53UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:10:53UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:11:53UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:14:53UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:15:11UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:16:03UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:20:25UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:21:25UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:22:26UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:26:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:27:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:28:29UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:33:31UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:34:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:35:32UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:38:34UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:39:35UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:40:35UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:45:14UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:46:15UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:47:15UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:49:16UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:51:26UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:52:26UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:55:28UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:56:57UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-01T15:57:58UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:39:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:40:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:41:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:44:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:45:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:46:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:50:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:51:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:52:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:56:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:57:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T14:58:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:01:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:02:10UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:03:10UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:06:10UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:07:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:08:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:12:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:13:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:14:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:17:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:18:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:19:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:23:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:24:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:25:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:29:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:30:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:31:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:33:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:34:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:35:09UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:37:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:38:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:39:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:43:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:44:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:45:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:48:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:49:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:50:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:53:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:54:18UTC-5:00</t>
-  </si>
-  <si>
-    <t>2024-07-02T15:55:18UTC-5:00</t>
+    <t>2024-07-01T12:23:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:24:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:25:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:28:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:29:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:30:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:34:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:35:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:36:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:40:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:41:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:42:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:45:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:46:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:47:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:50:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:51:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:52:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:57:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:58:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T12:59:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:03:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:04:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:05:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:09:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:10:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:11:33-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:15:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:16:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:17:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:20:07-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:21:07-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:22:07-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:26:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:27:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:28:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:32:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:33:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:34:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:38:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:39:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:40:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:43:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:44:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T13:45:08-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:19:38-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:20:38-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:21:38-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:25:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:26:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:27:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:31:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:32:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:33:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:51:27-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:52:27-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:53:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:57:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:58:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T14:59:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:02:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:03:27-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:04:27-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:09:53-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:10:53-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:11:53-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:14:53-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:15:11-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:16:03-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:20:25-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:21:25-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:22:26-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:26:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:27:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:28:29-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:33:31-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:34:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:35:32-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:38:34-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:39:35-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:40:35-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:45:14-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:46:15-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:47:15-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:49:16-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:51:26-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:52:26-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:55:28-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:56:57-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-01T15:57:58-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:39:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:40:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:41:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:44:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:45:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:46:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:50:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:51:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:52:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:56:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:57:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T14:58:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:01:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:02:10-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:03:10-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:06:10-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:07:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:08:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:12:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:13:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:14:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:17:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:18:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:19:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:23:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:24:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:25:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:29:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:30:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:31:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:33:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:34:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:35:09-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:37:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:38:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:39:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:43:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:44:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:45:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:48:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:49:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:50:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:53:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:54:18-5:00</t>
+  </si>
+  <si>
+    <t>2024-07-02T15:55:18-5:00</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6171,6 +6171,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070AB6E321BAC1341B2633291B9C13EED" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="204aad7288c11a53e2df7a1cfeae9afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xmlns:ns4="450bfa8b-dbaf-41a8-8049-43abb279adf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e6c565ac31076587d5c85cf1f965622" ns3:_="" ns4:_="">
     <xsd:import namespace="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
@@ -6365,14 +6373,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6FEB6EA-A7A2-4DBA-8CDA-AEB955E93295}">
   <ds:schemaRefs>
@@ -6382,6 +6382,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFEBC9D-3627-4BF3-95BA-CC7F0C2A1D4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="450bfa8b-dbaf-41a8-8049-43abb279adf0"/>
+    <ds:schemaRef ds:uri="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABA7D3F-4DCE-4706-88DA-A34B4DC4BD83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6398,21 +6415,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFEBC9D-3627-4BF3-95BA-CC7F0C2A1D4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="450bfa8b-dbaf-41a8-8049-43abb279adf0"/>
-    <ds:schemaRef ds:uri="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/preprocessed/ec_data.xlsx
+++ b/preprocessed/ec_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtjor\Downloads\soar_reeu\som_ec_nsf_reeu\preprocessed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtjor\Documents\Github\2024_SOM_EC_NSF_REEU\preprocessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9CA07-37C5-4FBC-9BD6-4DAFE949D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802DC81-2027-4092-8EC1-0402B98AB408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{951A400D-3628-4686-9B6C-4A6B949DA6F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="179">
   <si>
     <t>date_time</t>
   </si>
@@ -528,6 +528,51 @@
   </si>
   <si>
     <t>2024-07-02T15:55:18-5:00</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>1Cn</t>
+  </si>
+  <si>
+    <t>2Cn</t>
+  </si>
+  <si>
+    <t>3Cn</t>
+  </si>
+  <si>
+    <t>4Cn</t>
+  </si>
+  <si>
+    <t>5Cn</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>5T</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1422,8 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,8 +1483,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1473,8 +1518,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1508,8 +1553,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>164</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1543,8 +1588,8 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>164</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1578,8 +1623,8 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>164</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1613,8 +1658,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1648,8 +1693,8 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1683,8 +1728,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>164</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1718,8 +1763,8 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>164</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1753,8 +1798,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1788,8 +1833,8 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1823,8 +1868,8 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>165</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1858,8 +1903,8 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>2</v>
+      <c r="C14" t="s">
+        <v>165</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1893,8 +1938,8 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1928,8 +1973,8 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>2</v>
+      <c r="C16" t="s">
+        <v>165</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1963,8 +2008,8 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>2</v>
+      <c r="C17" t="s">
+        <v>165</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1998,8 +2043,8 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>165</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -2033,8 +2078,8 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>165</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -2068,8 +2113,8 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -2103,8 +2148,8 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
-        <v>3</v>
+      <c r="C21" t="s">
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -2138,8 +2183,8 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>3</v>
+      <c r="C22" t="s">
+        <v>166</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -2173,8 +2218,8 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
-        <v>3</v>
+      <c r="C23" t="s">
+        <v>166</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -2208,8 +2253,8 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
-        <v>3</v>
+      <c r="C24" t="s">
+        <v>166</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -2243,8 +2288,8 @@
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>3</v>
+      <c r="C25" t="s">
+        <v>166</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -2278,8 +2323,8 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
-        <v>3</v>
+      <c r="C26" t="s">
+        <v>166</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2313,8 +2358,8 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
-        <v>3</v>
+      <c r="C27" t="s">
+        <v>166</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -2348,8 +2393,8 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="C28" t="s">
+        <v>166</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2383,8 +2428,8 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="C29" t="s">
+        <v>167</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -2418,8 +2463,8 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
-        <v>4</v>
+      <c r="C30" t="s">
+        <v>167</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -2453,8 +2498,8 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
-        <v>4</v>
+      <c r="C31" t="s">
+        <v>167</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -2488,8 +2533,8 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="C32" t="s">
+        <v>167</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2523,8 +2568,8 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="s">
+        <v>167</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2558,8 +2603,8 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="C34" t="s">
+        <v>167</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2593,8 +2638,8 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="C35" t="s">
+        <v>167</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2628,8 +2673,8 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
-        <v>4</v>
+      <c r="C36" t="s">
+        <v>167</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -2663,8 +2708,8 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
-        <v>4</v>
+      <c r="C37" t="s">
+        <v>167</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -2698,8 +2743,8 @@
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38">
-        <v>5</v>
+      <c r="C38" t="s">
+        <v>168</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -2733,8 +2778,8 @@
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>168</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -2768,8 +2813,8 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
-        <v>5</v>
+      <c r="C40" t="s">
+        <v>168</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -2803,8 +2848,8 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41">
-        <v>5</v>
+      <c r="C41" t="s">
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2838,8 +2883,8 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42">
-        <v>5</v>
+      <c r="C42" t="s">
+        <v>168</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -2873,8 +2918,8 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>5</v>
+      <c r="C43" t="s">
+        <v>168</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -2908,8 +2953,8 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
-        <v>5</v>
+      <c r="C44" t="s">
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -2943,8 +2988,8 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45">
-        <v>5</v>
+      <c r="C45" t="s">
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
@@ -2978,8 +3023,8 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46">
-        <v>5</v>
+      <c r="C46" t="s">
+        <v>168</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -3013,8 +3058,8 @@
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="C47" t="s">
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3048,8 +3093,8 @@
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="C48" t="s">
+        <v>169</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3083,8 +3128,8 @@
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>169</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3118,8 +3163,8 @@
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="C50" t="s">
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3153,8 +3198,8 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="C51" t="s">
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3188,8 +3233,8 @@
       <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="C52" t="s">
+        <v>169</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3223,8 +3268,8 @@
       <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="C53" t="s">
+        <v>169</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -3258,8 +3303,8 @@
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="C54" t="s">
+        <v>169</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -3293,8 +3338,8 @@
       <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="C55" t="s">
+        <v>169</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -3328,8 +3373,8 @@
       <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="C56">
-        <v>2</v>
+      <c r="C56" t="s">
+        <v>170</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -3363,8 +3408,8 @@
       <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="C57">
-        <v>2</v>
+      <c r="C57" t="s">
+        <v>170</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -3398,8 +3443,8 @@
       <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="C58">
-        <v>2</v>
+      <c r="C58" t="s">
+        <v>170</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -3433,8 +3478,8 @@
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59">
-        <v>2</v>
+      <c r="C59" t="s">
+        <v>170</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -3468,8 +3513,8 @@
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60">
-        <v>2</v>
+      <c r="C60" t="s">
+        <v>170</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -3503,8 +3548,8 @@
       <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C61">
-        <v>2</v>
+      <c r="C61" t="s">
+        <v>170</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -3538,8 +3583,8 @@
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="C62">
-        <v>2</v>
+      <c r="C62" t="s">
+        <v>170</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3573,8 +3618,8 @@
       <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="C63">
-        <v>2</v>
+      <c r="C63" t="s">
+        <v>170</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -3608,8 +3653,8 @@
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64">
-        <v>2</v>
+      <c r="C64" t="s">
+        <v>170</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -3643,8 +3688,8 @@
       <c r="B65" t="s">
         <v>27</v>
       </c>
-      <c r="C65">
-        <v>3</v>
+      <c r="C65" t="s">
+        <v>171</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -3678,8 +3723,8 @@
       <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" t="s">
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -3713,8 +3758,8 @@
       <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67">
-        <v>3</v>
+      <c r="C67" t="s">
+        <v>171</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -3748,8 +3793,8 @@
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="C68">
-        <v>3</v>
+      <c r="C68" t="s">
+        <v>171</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -3783,8 +3828,8 @@
       <c r="B69" t="s">
         <v>27</v>
       </c>
-      <c r="C69">
-        <v>3</v>
+      <c r="C69" t="s">
+        <v>171</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3818,8 +3863,8 @@
       <c r="B70" t="s">
         <v>27</v>
       </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="C70" t="s">
+        <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3853,8 +3898,8 @@
       <c r="B71" t="s">
         <v>27</v>
       </c>
-      <c r="C71">
-        <v>3</v>
+      <c r="C71" t="s">
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
@@ -3888,8 +3933,8 @@
       <c r="B72" t="s">
         <v>27</v>
       </c>
-      <c r="C72">
-        <v>3</v>
+      <c r="C72" t="s">
+        <v>171</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -3923,8 +3968,8 @@
       <c r="B73" t="s">
         <v>27</v>
       </c>
-      <c r="C73">
-        <v>3</v>
+      <c r="C73" t="s">
+        <v>171</v>
       </c>
       <c r="D73" t="s">
         <v>20</v>
@@ -3958,8 +4003,8 @@
       <c r="B74" t="s">
         <v>27</v>
       </c>
-      <c r="C74">
-        <v>4</v>
+      <c r="C74" t="s">
+        <v>172</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
@@ -3993,8 +4038,8 @@
       <c r="B75" t="s">
         <v>27</v>
       </c>
-      <c r="C75">
-        <v>4</v>
+      <c r="C75" t="s">
+        <v>172</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
@@ -4028,8 +4073,8 @@
       <c r="B76" t="s">
         <v>27</v>
       </c>
-      <c r="C76">
-        <v>4</v>
+      <c r="C76" t="s">
+        <v>172</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
@@ -4063,8 +4108,8 @@
       <c r="B77" t="s">
         <v>27</v>
       </c>
-      <c r="C77">
-        <v>4</v>
+      <c r="C77" t="s">
+        <v>172</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -4098,8 +4143,8 @@
       <c r="B78" t="s">
         <v>27</v>
       </c>
-      <c r="C78">
-        <v>4</v>
+      <c r="C78" t="s">
+        <v>172</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -4133,8 +4178,8 @@
       <c r="B79" t="s">
         <v>27</v>
       </c>
-      <c r="C79">
-        <v>4</v>
+      <c r="C79" t="s">
+        <v>172</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -4168,8 +4213,8 @@
       <c r="B80" t="s">
         <v>27</v>
       </c>
-      <c r="C80">
-        <v>4</v>
+      <c r="C80" t="s">
+        <v>172</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -4203,8 +4248,8 @@
       <c r="B81" t="s">
         <v>27</v>
       </c>
-      <c r="C81">
-        <v>4</v>
+      <c r="C81" t="s">
+        <v>172</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -4238,8 +4283,8 @@
       <c r="B82" t="s">
         <v>27</v>
       </c>
-      <c r="C82">
-        <v>4</v>
+      <c r="C82" t="s">
+        <v>172</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -4273,8 +4318,8 @@
       <c r="B83" t="s">
         <v>27</v>
       </c>
-      <c r="C83">
-        <v>5</v>
+      <c r="C83" t="s">
+        <v>173</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -4308,8 +4353,8 @@
       <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C84">
-        <v>5</v>
+      <c r="C84" t="s">
+        <v>173</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -4343,8 +4388,8 @@
       <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C85">
-        <v>5</v>
+      <c r="C85" t="s">
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -4378,8 +4423,8 @@
       <c r="B86" t="s">
         <v>27</v>
       </c>
-      <c r="C86">
-        <v>5</v>
+      <c r="C86" t="s">
+        <v>173</v>
       </c>
       <c r="D86" t="s">
         <v>25</v>
@@ -4413,8 +4458,8 @@
       <c r="B87" t="s">
         <v>27</v>
       </c>
-      <c r="C87">
-        <v>5</v>
+      <c r="C87" t="s">
+        <v>173</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
@@ -4448,8 +4493,8 @@
       <c r="B88" t="s">
         <v>27</v>
       </c>
-      <c r="C88">
-        <v>5</v>
+      <c r="C88" t="s">
+        <v>173</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -4483,8 +4528,8 @@
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="C89">
-        <v>5</v>
+      <c r="C89" t="s">
+        <v>173</v>
       </c>
       <c r="D89" t="s">
         <v>26</v>
@@ -4518,8 +4563,8 @@
       <c r="B90" t="s">
         <v>27</v>
       </c>
-      <c r="C90">
-        <v>5</v>
+      <c r="C90" t="s">
+        <v>173</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
@@ -4553,8 +4598,8 @@
       <c r="B91" t="s">
         <v>27</v>
       </c>
-      <c r="C91">
-        <v>5</v>
+      <c r="C91" t="s">
+        <v>173</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
@@ -4588,8 +4633,8 @@
       <c r="B92" t="s">
         <v>28</v>
       </c>
-      <c r="C92">
-        <v>1</v>
+      <c r="C92" t="s">
+        <v>174</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4623,8 +4668,8 @@
       <c r="B93" t="s">
         <v>28</v>
       </c>
-      <c r="C93">
-        <v>1</v>
+      <c r="C93" t="s">
+        <v>174</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4658,8 +4703,8 @@
       <c r="B94" t="s">
         <v>28</v>
       </c>
-      <c r="C94">
-        <v>1</v>
+      <c r="C94" t="s">
+        <v>174</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4693,8 +4738,8 @@
       <c r="B95" t="s">
         <v>28</v>
       </c>
-      <c r="C95">
-        <v>1</v>
+      <c r="C95" t="s">
+        <v>174</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -4728,8 +4773,8 @@
       <c r="B96" t="s">
         <v>28</v>
       </c>
-      <c r="C96">
-        <v>1</v>
+      <c r="C96" t="s">
+        <v>174</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -4763,8 +4808,8 @@
       <c r="B97" t="s">
         <v>28</v>
       </c>
-      <c r="C97">
-        <v>1</v>
+      <c r="C97" t="s">
+        <v>174</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -4798,8 +4843,8 @@
       <c r="B98" t="s">
         <v>28</v>
       </c>
-      <c r="C98">
-        <v>1</v>
+      <c r="C98" t="s">
+        <v>174</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4833,8 +4878,8 @@
       <c r="B99" t="s">
         <v>28</v>
       </c>
-      <c r="C99">
-        <v>1</v>
+      <c r="C99" t="s">
+        <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -4868,8 +4913,8 @@
       <c r="B100" t="s">
         <v>28</v>
       </c>
-      <c r="C100">
-        <v>1</v>
+      <c r="C100" t="s">
+        <v>174</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -4903,8 +4948,8 @@
       <c r="B101" t="s">
         <v>28</v>
       </c>
-      <c r="C101">
-        <v>2</v>
+      <c r="C101" t="s">
+        <v>175</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
@@ -4938,8 +4983,8 @@
       <c r="B102" t="s">
         <v>28</v>
       </c>
-      <c r="C102">
-        <v>2</v>
+      <c r="C102" t="s">
+        <v>175</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -4973,8 +5018,8 @@
       <c r="B103" t="s">
         <v>28</v>
       </c>
-      <c r="C103">
-        <v>2</v>
+      <c r="C103" t="s">
+        <v>175</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -5008,8 +5053,8 @@
       <c r="B104" t="s">
         <v>28</v>
       </c>
-      <c r="C104">
-        <v>2</v>
+      <c r="C104" t="s">
+        <v>175</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
@@ -5043,8 +5088,8 @@
       <c r="B105" t="s">
         <v>28</v>
       </c>
-      <c r="C105">
-        <v>2</v>
+      <c r="C105" t="s">
+        <v>175</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
@@ -5078,8 +5123,8 @@
       <c r="B106" t="s">
         <v>28</v>
       </c>
-      <c r="C106">
-        <v>2</v>
+      <c r="C106" t="s">
+        <v>175</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
@@ -5113,8 +5158,8 @@
       <c r="B107" t="s">
         <v>28</v>
       </c>
-      <c r="C107">
-        <v>2</v>
+      <c r="C107" t="s">
+        <v>175</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -5148,8 +5193,8 @@
       <c r="B108" t="s">
         <v>28</v>
       </c>
-      <c r="C108">
-        <v>2</v>
+      <c r="C108" t="s">
+        <v>175</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -5183,8 +5228,8 @@
       <c r="B109" t="s">
         <v>28</v>
       </c>
-      <c r="C109">
-        <v>2</v>
+      <c r="C109" t="s">
+        <v>175</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -5218,8 +5263,8 @@
       <c r="B110" t="s">
         <v>28</v>
       </c>
-      <c r="C110">
-        <v>3</v>
+      <c r="C110" t="s">
+        <v>176</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -5253,8 +5298,8 @@
       <c r="B111" t="s">
         <v>28</v>
       </c>
-      <c r="C111">
-        <v>3</v>
+      <c r="C111" t="s">
+        <v>176</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -5288,8 +5333,8 @@
       <c r="B112" t="s">
         <v>28</v>
       </c>
-      <c r="C112">
-        <v>3</v>
+      <c r="C112" t="s">
+        <v>176</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -5323,8 +5368,8 @@
       <c r="B113" t="s">
         <v>28</v>
       </c>
-      <c r="C113">
-        <v>3</v>
+      <c r="C113" t="s">
+        <v>176</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -5358,8 +5403,8 @@
       <c r="B114" t="s">
         <v>28</v>
       </c>
-      <c r="C114">
-        <v>3</v>
+      <c r="C114" t="s">
+        <v>176</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -5393,8 +5438,8 @@
       <c r="B115" t="s">
         <v>28</v>
       </c>
-      <c r="C115">
-        <v>3</v>
+      <c r="C115" t="s">
+        <v>176</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -5428,8 +5473,8 @@
       <c r="B116" t="s">
         <v>28</v>
       </c>
-      <c r="C116">
-        <v>3</v>
+      <c r="C116" t="s">
+        <v>176</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -5463,8 +5508,8 @@
       <c r="B117" t="s">
         <v>28</v>
       </c>
-      <c r="C117">
-        <v>3</v>
+      <c r="C117" t="s">
+        <v>176</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
@@ -5498,8 +5543,8 @@
       <c r="B118" t="s">
         <v>28</v>
       </c>
-      <c r="C118">
-        <v>3</v>
+      <c r="C118" t="s">
+        <v>176</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -5533,8 +5578,8 @@
       <c r="B119" t="s">
         <v>28</v>
       </c>
-      <c r="C119">
-        <v>4</v>
+      <c r="C119" t="s">
+        <v>177</v>
       </c>
       <c r="D119" t="s">
         <v>21</v>
@@ -5568,8 +5613,8 @@
       <c r="B120" t="s">
         <v>28</v>
       </c>
-      <c r="C120">
-        <v>4</v>
+      <c r="C120" t="s">
+        <v>177</v>
       </c>
       <c r="D120" t="s">
         <v>21</v>
@@ -5603,8 +5648,8 @@
       <c r="B121" t="s">
         <v>28</v>
       </c>
-      <c r="C121">
-        <v>4</v>
+      <c r="C121" t="s">
+        <v>177</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
@@ -5638,8 +5683,8 @@
       <c r="B122" t="s">
         <v>28</v>
       </c>
-      <c r="C122">
-        <v>4</v>
+      <c r="C122" t="s">
+        <v>177</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -5673,8 +5718,8 @@
       <c r="B123" t="s">
         <v>28</v>
       </c>
-      <c r="C123">
-        <v>4</v>
+      <c r="C123" t="s">
+        <v>177</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -5708,8 +5753,8 @@
       <c r="B124" t="s">
         <v>28</v>
       </c>
-      <c r="C124">
-        <v>4</v>
+      <c r="C124" t="s">
+        <v>177</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
@@ -5743,8 +5788,8 @@
       <c r="B125" t="s">
         <v>28</v>
       </c>
-      <c r="C125">
-        <v>4</v>
+      <c r="C125" t="s">
+        <v>177</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -5778,8 +5823,8 @@
       <c r="B126" t="s">
         <v>28</v>
       </c>
-      <c r="C126">
-        <v>4</v>
+      <c r="C126" t="s">
+        <v>177</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
@@ -5813,8 +5858,8 @@
       <c r="B127" t="s">
         <v>28</v>
       </c>
-      <c r="C127">
-        <v>4</v>
+      <c r="C127" t="s">
+        <v>177</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
@@ -5848,8 +5893,8 @@
       <c r="B128" t="s">
         <v>28</v>
       </c>
-      <c r="C128">
-        <v>5</v>
+      <c r="C128" t="s">
+        <v>178</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -5883,8 +5928,8 @@
       <c r="B129" t="s">
         <v>28</v>
       </c>
-      <c r="C129">
-        <v>5</v>
+      <c r="C129" t="s">
+        <v>178</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -5918,8 +5963,8 @@
       <c r="B130" t="s">
         <v>28</v>
       </c>
-      <c r="C130">
-        <v>5</v>
+      <c r="C130" t="s">
+        <v>178</v>
       </c>
       <c r="D130" t="s">
         <v>24</v>
@@ -5953,8 +5998,8 @@
       <c r="B131" t="s">
         <v>28</v>
       </c>
-      <c r="C131">
-        <v>5</v>
+      <c r="C131" t="s">
+        <v>178</v>
       </c>
       <c r="D131" t="s">
         <v>25</v>
@@ -5988,8 +6033,8 @@
       <c r="B132" t="s">
         <v>28</v>
       </c>
-      <c r="C132">
-        <v>5</v>
+      <c r="C132" t="s">
+        <v>178</v>
       </c>
       <c r="D132" t="s">
         <v>25</v>
@@ -6023,8 +6068,8 @@
       <c r="B133" t="s">
         <v>28</v>
       </c>
-      <c r="C133">
-        <v>5</v>
+      <c r="C133" t="s">
+        <v>178</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -6058,8 +6103,8 @@
       <c r="B134" t="s">
         <v>28</v>
       </c>
-      <c r="C134">
-        <v>5</v>
+      <c r="C134" t="s">
+        <v>178</v>
       </c>
       <c r="D134" t="s">
         <v>26</v>
@@ -6093,8 +6138,8 @@
       <c r="B135" t="s">
         <v>28</v>
       </c>
-      <c r="C135">
-        <v>5</v>
+      <c r="C135" t="s">
+        <v>178</v>
       </c>
       <c r="D135" t="s">
         <v>26</v>
@@ -6128,8 +6173,8 @@
       <c r="B136" t="s">
         <v>28</v>
       </c>
-      <c r="C136">
-        <v>5</v>
+      <c r="C136" t="s">
+        <v>178</v>
       </c>
       <c r="D136" t="s">
         <v>26</v>
@@ -6171,14 +6216,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070AB6E321BAC1341B2633291B9C13EED" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="204aad7288c11a53e2df7a1cfeae9afd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xmlns:ns4="450bfa8b-dbaf-41a8-8049-43abb279adf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e6c565ac31076587d5c85cf1f965622" ns3:_="" ns4:_="">
     <xsd:import namespace="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
@@ -6373,6 +6410,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f2f9d9f9-ff3a-4363-a370-08ac63c130c1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6FEB6EA-A7A2-4DBA-8CDA-AEB955E93295}">
   <ds:schemaRefs>
@@ -6382,23 +6427,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFEBC9D-3627-4BF3-95BA-CC7F0C2A1D4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="450bfa8b-dbaf-41a8-8049-43abb279adf0"/>
-    <ds:schemaRef ds:uri="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABA7D3F-4DCE-4706-88DA-A34B4DC4BD83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6415,4 +6443,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFEBC9D-3627-4BF3-95BA-CC7F0C2A1D4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="450bfa8b-dbaf-41a8-8049-43abb279adf0"/>
+    <ds:schemaRef ds:uri="f2f9d9f9-ff3a-4363-a370-08ac63c130c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>